--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15671.92323286845</v>
+        <v>15671.92323286848</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799731</v>
+        <v>-96222.72558799725</v>
       </c>
       <c r="F6" t="n">
         <v>36877.27441200275</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15671.92323286848</v>
+        <v>29398.28137028664</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799725</v>
+        <v>-96222.72558799731</v>
       </c>
       <c r="F6" t="n">
         <v>36877.27441200275</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29398.28137028664</v>
+        <v>-128354.0142330962</v>
       </c>
     </row>
     <row r="7">
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="F2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="G2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="H2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="I2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="J2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="K2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="L2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="M2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="N2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="O2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
       <c r="P2" t="n">
-        <v>40488.88651701107</v>
+        <v>40488.88651701104</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799731</v>
+        <v>-114218.2144272912</v>
       </c>
       <c r="F6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="G6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="H6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="I6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="J6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="K6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="L6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="M6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="N6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="O6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="P6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
     </row>
   </sheetData>
